--- a/biology/Médecine/Masculinisme_(médecine)/Masculinisme_(médecine).xlsx
+++ b/biology/Médecine/Masculinisme_(médecine)/Masculinisme_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masculinisme_(m%C3%A9decine)</t>
+          <t>Masculinisme_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, le masculinisme caractérise l'« état d'un sujet féminin qui présente des caractères sexuels secondaires masculins » (aménorrhée, voix rauque, hirsutisme, etc.).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Masculinisme_(m%C3%A9decine)</t>
+          <t>Masculinisme_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Trésor de la langue française, la première attestation de masculinisme date de 1931[1]. Le dictionnaire mentionne le terme prédécesseur « masculisme », attesté en 1902 dans le Nouveau Larousse illustré, « qui avait à l'origine le sens de « ensemble du sexe masculin, de ses conditions d'être, naturelles et sociales » par opposition à féminisme, dérivé par haplologie de masculin sur le modèle de féminisme ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Trésor de la langue française, la première attestation de masculinisme date de 1931. Le dictionnaire mentionne le terme prédécesseur « masculisme », attesté en 1902 dans le Nouveau Larousse illustré, « qui avait à l'origine le sens de « ensemble du sexe masculin, de ses conditions d'être, naturelles et sociales » par opposition à féminisme, dérivé par haplologie de masculin sur le modèle de féminisme ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Masculinisme_(m%C3%A9decine)</t>
+          <t>Masculinisme_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine médical, le mot désigne l'état d'un sujet féminin qui présente des caractères sexuels secondaires masculins (pilosité faciale, voix grave, aménorrhée, atrophie mammaire)[2],[3],[1]. « Il s'observe dans certaines tumeurs de l'ovaire, dans quelques cas de tumeurs surrénaliennes ou après traitement par des androgènes[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine médical, le mot désigne l'état d'un sujet féminin qui présente des caractères sexuels secondaires masculins (pilosité faciale, voix grave, aménorrhée, atrophie mammaire). « Il s'observe dans certaines tumeurs de l'ovaire, dans quelques cas de tumeurs surrénaliennes ou après traitement par des androgènes. »
 </t>
         </is>
       </c>
